--- a/GitHub Info sans duplicates.xlsx
+++ b/GitHub Info sans duplicates.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\staffcard\CS335\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ahmed\blackhat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5B66E6-C978-405B-A201-21A40D91C2F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9609AAD-1769-49F6-A8B6-5A63B53DCD80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3317" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3316" uniqueCount="911">
   <si>
     <t>Timestamp</t>
   </si>
@@ -9556,9 +9556,7 @@
       <c r="B39" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>289</v>
-      </c>
+      <c r="C39" s="3"/>
       <c r="D39" s="3" t="s">
         <v>290</v>
       </c>
